--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件撤诉件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件撤诉件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,691 +493,465 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25141</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3622</v>
+      </c>
       <c r="D2" t="n">
-        <v>224530</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>326353</v>
+      </c>
+      <c r="E2" t="n">
+        <v>316979</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9346</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5499</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4998</v>
+      </c>
+      <c r="I2" t="n">
+        <v>268793</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9374</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8200</v>
+      </c>
+      <c r="L2" t="n">
+        <v>754</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53524</v>
+      </c>
+      <c r="C3" t="n">
+        <v>35022</v>
+      </c>
       <c r="D3" t="n">
-        <v>222118</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>407248</v>
+      </c>
+      <c r="E3" t="n">
+        <v>365791</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8845</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5783</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5548</v>
+      </c>
+      <c r="I3" t="n">
+        <v>289946</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41457</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7693</v>
+      </c>
+      <c r="L3" t="n">
+        <v>887</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>45730</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32447</v>
+      </c>
       <c r="D4" t="n">
-        <v>211599</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>413132</v>
+      </c>
+      <c r="E4" t="n">
+        <v>373912</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8760</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6252</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5792</v>
+      </c>
+      <c r="I4" t="n">
+        <v>305692</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39220</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7478</v>
+      </c>
+      <c r="L4" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11557</v>
+        <v>28984</v>
       </c>
       <c r="C5" t="n">
-        <v>1509</v>
+        <v>13943</v>
       </c>
       <c r="D5" t="n">
-        <v>208513</v>
+        <v>381538</v>
       </c>
       <c r="E5" t="n">
-        <v>204742</v>
+        <v>360550</v>
       </c>
       <c r="F5" t="n">
-        <v>5979</v>
+        <v>8501</v>
       </c>
       <c r="G5" t="n">
-        <v>4397</v>
+        <v>6230</v>
       </c>
       <c r="H5" t="n">
-        <v>2039</v>
+        <v>6012</v>
       </c>
       <c r="I5" t="n">
-        <v>172674</v>
+        <v>309066</v>
       </c>
       <c r="J5" t="n">
-        <v>3771</v>
+        <v>20988</v>
       </c>
       <c r="K5" t="n">
-        <v>10135</v>
+        <v>7769</v>
       </c>
       <c r="L5" t="n">
-        <v>223</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11996</v>
+        <v>28979</v>
       </c>
       <c r="C6" t="n">
-        <v>1730</v>
+        <v>4946</v>
       </c>
       <c r="D6" t="n">
-        <v>214788</v>
+        <v>379034</v>
       </c>
       <c r="E6" t="n">
-        <v>210576</v>
+        <v>366893</v>
       </c>
       <c r="F6" t="n">
-        <v>6373</v>
+        <v>8826</v>
       </c>
       <c r="G6" t="n">
-        <v>4322</v>
+        <v>6451</v>
       </c>
       <c r="H6" t="n">
-        <v>2238</v>
+        <v>6149</v>
       </c>
       <c r="I6" t="n">
-        <v>178754</v>
+        <v>314967</v>
       </c>
       <c r="J6" t="n">
-        <v>4212</v>
+        <v>12141</v>
       </c>
       <c r="K6" t="n">
-        <v>9131</v>
+        <v>7670</v>
       </c>
       <c r="L6" t="n">
-        <v>244</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13775</v>
+        <v>30728</v>
       </c>
       <c r="C7" t="n">
-        <v>2102</v>
+        <v>5583</v>
       </c>
       <c r="D7" t="n">
-        <v>236087</v>
+        <v>413451</v>
       </c>
       <c r="E7" t="n">
-        <v>231179</v>
+        <v>400899</v>
       </c>
       <c r="F7" t="n">
-        <v>7637</v>
+        <v>10178</v>
       </c>
       <c r="G7" t="n">
-        <v>4660</v>
+        <v>7504</v>
       </c>
       <c r="H7" t="n">
-        <v>2500</v>
+        <v>5977</v>
       </c>
       <c r="I7" t="n">
-        <v>196581</v>
+        <v>344447</v>
       </c>
       <c r="J7" t="n">
-        <v>4908</v>
+        <v>12552</v>
       </c>
       <c r="K7" t="n">
-        <v>8526</v>
+        <v>8042</v>
       </c>
       <c r="L7" t="n">
-        <v>306</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18084</v>
+        <v>30459</v>
       </c>
       <c r="C8" t="n">
-        <v>2607</v>
+        <v>6322</v>
       </c>
       <c r="D8" t="n">
-        <v>276511</v>
+        <v>420332</v>
       </c>
       <c r="E8" t="n">
-        <v>270355</v>
+        <v>406621</v>
       </c>
       <c r="F8" t="n">
-        <v>8930</v>
+        <v>11225</v>
       </c>
       <c r="G8" t="n">
-        <v>5357</v>
+        <v>8289</v>
       </c>
       <c r="H8" t="n">
-        <v>3126</v>
+        <v>6388</v>
       </c>
       <c r="I8" t="n">
-        <v>229124</v>
+        <v>348752</v>
       </c>
       <c r="J8" t="n">
-        <v>6156</v>
+        <v>13711</v>
       </c>
       <c r="K8" t="n">
-        <v>8860</v>
+        <v>7896</v>
       </c>
       <c r="L8" t="n">
-        <v>423</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22278</v>
+        <v>32661</v>
       </c>
       <c r="C9" t="n">
-        <v>2789</v>
+        <v>7915</v>
       </c>
       <c r="D9" t="n">
-        <v>306697</v>
+        <v>433185</v>
       </c>
       <c r="E9" t="n">
-        <v>299330</v>
+        <v>416540</v>
       </c>
       <c r="F9" t="n">
-        <v>9299</v>
+        <v>1437</v>
       </c>
       <c r="G9" t="n">
-        <v>5623</v>
+        <v>19658</v>
       </c>
       <c r="H9" t="n">
-        <v>3965</v>
+        <v>7137</v>
       </c>
       <c r="I9" t="n">
-        <v>253269</v>
+        <v>353373</v>
       </c>
       <c r="J9" t="n">
-        <v>7367</v>
+        <v>16101</v>
       </c>
       <c r="K9" t="n">
-        <v>8861</v>
+        <v>8134</v>
       </c>
       <c r="L9" t="n">
-        <v>613</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25141</v>
+        <v>34873</v>
       </c>
       <c r="C10" t="n">
-        <v>3622</v>
+        <v>10144</v>
       </c>
       <c r="D10" t="n">
-        <v>326353</v>
+        <v>432280</v>
       </c>
       <c r="E10" t="n">
-        <v>316979</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9346</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5499</v>
-      </c>
+        <v>412575</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>4998</v>
+        <v>8076</v>
       </c>
       <c r="I10" t="n">
-        <v>268793</v>
+        <v>345576</v>
       </c>
       <c r="J10" t="n">
-        <v>9374</v>
+        <v>19407</v>
       </c>
       <c r="K10" t="n">
-        <v>8200</v>
+        <v>7744</v>
       </c>
       <c r="L10" t="n">
-        <v>754</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53524</v>
+        <v>35560</v>
       </c>
       <c r="C11" t="n">
-        <v>35022</v>
+        <v>11206</v>
       </c>
       <c r="D11" t="n">
-        <v>407248</v>
+        <v>438754</v>
       </c>
       <c r="E11" t="n">
-        <v>365791</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8845</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5783</v>
-      </c>
+        <v>417917</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>5548</v>
+        <v>8027</v>
       </c>
       <c r="I11" t="n">
-        <v>289946</v>
+        <v>345507</v>
       </c>
       <c r="J11" t="n">
-        <v>41457</v>
+        <v>20607</v>
       </c>
       <c r="K11" t="n">
-        <v>7693</v>
+        <v>7680</v>
       </c>
       <c r="L11" t="n">
-        <v>887</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45730</v>
+        <v>33080</v>
       </c>
       <c r="C12" t="n">
-        <v>32447</v>
+        <v>10706</v>
       </c>
       <c r="D12" t="n">
-        <v>413132</v>
+        <v>377466</v>
       </c>
       <c r="E12" t="n">
-        <v>373912</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8760</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6252</v>
-      </c>
+        <v>358917</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>5792</v>
+        <v>6467</v>
       </c>
       <c r="I12" t="n">
-        <v>305692</v>
+        <v>292826</v>
       </c>
       <c r="J12" t="n">
-        <v>39220</v>
+        <v>18332</v>
       </c>
       <c r="K12" t="n">
-        <v>7478</v>
+        <v>5979</v>
       </c>
       <c r="L12" t="n">
-        <v>981</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28984</v>
+        <v>37454</v>
       </c>
       <c r="C13" t="n">
-        <v>13943</v>
+        <v>12351</v>
       </c>
       <c r="D13" t="n">
-        <v>381538</v>
+        <v>384211</v>
       </c>
       <c r="E13" t="n">
-        <v>360550</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8501</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6230</v>
-      </c>
+        <v>362291</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>6012</v>
+        <v>7642</v>
       </c>
       <c r="I13" t="n">
-        <v>309066</v>
+        <v>286335</v>
       </c>
       <c r="J13" t="n">
-        <v>20988</v>
+        <v>21384</v>
       </c>
       <c r="K13" t="n">
-        <v>7769</v>
+        <v>6525</v>
       </c>
       <c r="L13" t="n">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>28979</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4946</v>
-      </c>
-      <c r="D14" t="n">
-        <v>379034</v>
-      </c>
-      <c r="E14" t="n">
-        <v>366893</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8826</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6451</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6149</v>
-      </c>
-      <c r="I14" t="n">
-        <v>314967</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12141</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7670</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>30728</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5583</v>
-      </c>
-      <c r="D15" t="n">
-        <v>413451</v>
-      </c>
-      <c r="E15" t="n">
-        <v>400899</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10178</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7504</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5977</v>
-      </c>
-      <c r="I15" t="n">
-        <v>344447</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12552</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8042</v>
-      </c>
-      <c r="L15" t="n">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>30459</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6322</v>
-      </c>
-      <c r="D16" t="n">
-        <v>420332</v>
-      </c>
-      <c r="E16" t="n">
-        <v>406621</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11225</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8289</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6388</v>
-      </c>
-      <c r="I16" t="n">
-        <v>348752</v>
-      </c>
-      <c r="J16" t="n">
-        <v>13711</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7896</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>32661</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7915</v>
-      </c>
-      <c r="D17" t="n">
-        <v>433185</v>
-      </c>
-      <c r="E17" t="n">
-        <v>416540</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1437</v>
-      </c>
-      <c r="G17" t="n">
-        <v>19658</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7137</v>
-      </c>
-      <c r="I17" t="n">
-        <v>353373</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16101</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8134</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>34873</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10144</v>
-      </c>
-      <c r="D18" t="n">
-        <v>432280</v>
-      </c>
-      <c r="E18" t="n">
-        <v>412575</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>8076</v>
-      </c>
-      <c r="I18" t="n">
-        <v>345576</v>
-      </c>
-      <c r="J18" t="n">
-        <v>19407</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7744</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>35560</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11206</v>
-      </c>
-      <c r="D19" t="n">
-        <v>438754</v>
-      </c>
-      <c r="E19" t="n">
-        <v>417917</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>8027</v>
-      </c>
-      <c r="I19" t="n">
-        <v>345507</v>
-      </c>
-      <c r="J19" t="n">
-        <v>20607</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7680</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>33080</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10706</v>
-      </c>
-      <c r="D20" t="n">
-        <v>377466</v>
-      </c>
-      <c r="E20" t="n">
-        <v>358917</v>
-      </c>
-      <c r="F20" t="n">
-        <v>25004</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>6467</v>
-      </c>
-      <c r="I20" t="n">
-        <v>292826</v>
-      </c>
-      <c r="J20" t="n">
-        <v>18332</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5979</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1159</v>
+        <v>1391</v>
       </c>
     </row>
   </sheetData>
